--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -47,22 +47,52 @@
     <t>COSU6085328850</t>
   </si>
   <si>
-    <t>TEMU6364258</t>
-  </si>
-  <si>
-    <t>9075904335-01</t>
-  </si>
-  <si>
-    <t>COSU6085328860</t>
-  </si>
-  <si>
-    <t>CCLU4886795</t>
-  </si>
-  <si>
-    <t>9074904749-01</t>
-  </si>
-  <si>
-    <t>COSU6085328830</t>
+    <t>OOCU7012616</t>
+  </si>
+  <si>
+    <t>OOCL BEIJING</t>
+  </si>
+  <si>
+    <t>068E</t>
+  </si>
+  <si>
+    <t>9089904390-01</t>
+  </si>
+  <si>
+    <t>OOLU2106166424</t>
+  </si>
+  <si>
+    <t>SEGU4637402</t>
+  </si>
+  <si>
+    <t>9076904554-01</t>
+  </si>
+  <si>
+    <t>COSU6085344670</t>
+  </si>
+  <si>
+    <t>OOLU7790521</t>
+  </si>
+  <si>
+    <t>9089904391-01</t>
+  </si>
+  <si>
+    <t>OOLU9684489</t>
+  </si>
+  <si>
+    <t>OOCL HO CHI MINH CI</t>
+  </si>
+  <si>
+    <t>9089904348-01</t>
+  </si>
+  <si>
+    <t>OOLU2106052680</t>
+  </si>
+  <si>
+    <t>OOLU9773821</t>
+  </si>
+  <si>
+    <t>9089904349-01</t>
   </si>
   <si>
     <t>FCIU7210400</t>
@@ -77,6 +107,24 @@
     <t>COSU6085352750</t>
   </si>
   <si>
+    <t>OOCU5017898</t>
+  </si>
+  <si>
+    <t>9089904345-01</t>
+  </si>
+  <si>
+    <t>OOLU8278593</t>
+  </si>
+  <si>
+    <t>9089904347-01</t>
+  </si>
+  <si>
+    <t>OOLU9043206</t>
+  </si>
+  <si>
+    <t>9089904393-01</t>
+  </si>
+  <si>
     <t>ECMU8052271</t>
   </si>
   <si>
@@ -92,12 +140,6 @@
     <t>CMDUNBPD013363</t>
   </si>
   <si>
-    <t>ECMU4503171</t>
-  </si>
-  <si>
-    <t>9089904082-01</t>
-  </si>
-  <si>
     <t>TCNU9430081</t>
   </si>
   <si>
@@ -110,9 +152,6 @@
     <t>SEGU6298653</t>
   </si>
   <si>
-    <t>OOCL HO CHI MINH CI</t>
-  </si>
-  <si>
     <t>9089904242-01</t>
   </si>
   <si>
@@ -128,34 +167,31 @@
     <t>COSU6085352230</t>
   </si>
   <si>
-    <t>BMOU5837753</t>
-  </si>
-  <si>
-    <t>9073904460-01</t>
-  </si>
-  <si>
-    <t>COSU6085344660</t>
-  </si>
-  <si>
-    <t>OOLU7722342</t>
-  </si>
-  <si>
-    <t>OOCL MEMPHIS</t>
-  </si>
-  <si>
-    <t>047E</t>
-  </si>
-  <si>
-    <t>9089904178-01</t>
-  </si>
-  <si>
-    <t>OOLU4047641311</t>
-  </si>
-  <si>
     <t>OOLU9197916</t>
   </si>
   <si>
     <t>9089904241-01</t>
+  </si>
+  <si>
+    <t>OOLU8510712</t>
+  </si>
+  <si>
+    <t>9089904392-01</t>
+  </si>
+  <si>
+    <t>MAGU5272840</t>
+  </si>
+  <si>
+    <t>9077904165-01</t>
+  </si>
+  <si>
+    <t>COSU6085344680</t>
+  </si>
+  <si>
+    <t>OOCU7018189</t>
+  </si>
+  <si>
+    <t>9089904398-01</t>
   </si>
 </sst>
 </file>
@@ -200,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -249,53 +285,53 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -306,40 +342,40 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -357,89 +393,197 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,145 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>OOCU7012616</t>
+    <t>FCIU7210400</t>
+  </si>
+  <si>
+    <t>OOCL TAIPEI</t>
+  </si>
+  <si>
+    <t>032E</t>
+  </si>
+  <si>
+    <t>9076904260-01</t>
+  </si>
+  <si>
+    <t>COSU6085352750</t>
+  </si>
+  <si>
+    <t>TCNU9430081</t>
+  </si>
+  <si>
+    <t>9076904261-01</t>
+  </si>
+  <si>
+    <t>COSU6085352240</t>
+  </si>
+  <si>
+    <t>BMOU5840741</t>
+  </si>
+  <si>
+    <t>9076904262-01</t>
+  </si>
+  <si>
+    <t>COSU6085352230</t>
+  </si>
+  <si>
+    <t>OOLU4335313</t>
+  </si>
+  <si>
+    <t>9089904523-01</t>
+  </si>
+  <si>
+    <t>OOLU2106264990</t>
+  </si>
+  <si>
+    <t>OOCU4793916</t>
+  </si>
+  <si>
+    <t>9089904522-01</t>
+  </si>
+  <si>
+    <t>OOCU4852618</t>
+  </si>
+  <si>
+    <t>OOCL TOKYO</t>
+  </si>
+  <si>
+    <t>092E</t>
+  </si>
+  <si>
+    <t>9089904463-01</t>
+  </si>
+  <si>
+    <t>OOLU2106101790</t>
+  </si>
+  <si>
+    <t>OOCU4975227</t>
+  </si>
+  <si>
+    <t>9089904525-01</t>
+  </si>
+  <si>
+    <t>OOLU6877490</t>
+  </si>
+  <si>
+    <t>9089904526-01</t>
+  </si>
+  <si>
+    <t>OOLU7314931</t>
+  </si>
+  <si>
+    <t>9089904524-01</t>
+  </si>
+  <si>
+    <t>CSNU6367400</t>
+  </si>
+  <si>
+    <t>OOCL GENOA</t>
+  </si>
+  <si>
+    <t>9071905273-01</t>
+  </si>
+  <si>
+    <t>COSU6194878780</t>
+  </si>
+  <si>
+    <t>TRHU1020865</t>
+  </si>
+  <si>
+    <t>OOCL CANADA</t>
+  </si>
+  <si>
+    <t>062E</t>
+  </si>
+  <si>
+    <t>9089904475-01</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013416</t>
+  </si>
+  <si>
+    <t>CMAU8106673</t>
+  </si>
+  <si>
+    <t>9089904472-01</t>
+  </si>
+  <si>
+    <t>OOLU3685723</t>
+  </si>
+  <si>
+    <t>9089904499-01</t>
+  </si>
+  <si>
+    <t>OOLU2106104020</t>
+  </si>
+  <si>
+    <t>TEMU6000600</t>
+  </si>
+  <si>
+    <t>9089904489-01</t>
+  </si>
+  <si>
+    <t>COSU6189044890</t>
+  </si>
+  <si>
+    <t>ECMU4470890</t>
+  </si>
+  <si>
+    <t>9089904473-01</t>
+  </si>
+  <si>
+    <t>OOCU7018189</t>
   </si>
   <si>
     <t>OOCL BEIJING</t>
@@ -41,112 +179,31 @@
     <t>068E</t>
   </si>
   <si>
-    <t>9089904390-01</t>
+    <t>9089904398-01</t>
   </si>
   <si>
     <t>OOLU2106166424</t>
   </si>
   <si>
-    <t>SEGU4637402</t>
-  </si>
-  <si>
-    <t>9076904554-01</t>
-  </si>
-  <si>
-    <t>COSU6085344670</t>
-  </si>
-  <si>
-    <t>OOLU7790521</t>
-  </si>
-  <si>
-    <t>9089904391-01</t>
-  </si>
-  <si>
-    <t>FCIU7210400</t>
-  </si>
-  <si>
-    <t>OOCL TAIPEI</t>
-  </si>
-  <si>
-    <t>032E</t>
-  </si>
-  <si>
-    <t>9076904260-01</t>
-  </si>
-  <si>
-    <t>COSU6085352750</t>
-  </si>
-  <si>
-    <t>CCLU4661320</t>
-  </si>
-  <si>
-    <t>9077904369-01</t>
-  </si>
-  <si>
-    <t>COSU6194883780</t>
-  </si>
-  <si>
-    <t>OOLU9043206</t>
-  </si>
-  <si>
-    <t>9089904393-01</t>
-  </si>
-  <si>
-    <t>TCNU9430081</t>
-  </si>
-  <si>
-    <t>9076904261-01</t>
-  </si>
-  <si>
-    <t>COSU6085352240</t>
-  </si>
-  <si>
-    <t>BMOU5840741</t>
-  </si>
-  <si>
-    <t>9076904262-01</t>
-  </si>
-  <si>
-    <t>COSU6085352230</t>
-  </si>
-  <si>
-    <t>OOLU8510712</t>
-  </si>
-  <si>
-    <t>9089904392-01</t>
-  </si>
-  <si>
-    <t>CSNU6367400</t>
-  </si>
-  <si>
-    <t>OOCL GENOA</t>
-  </si>
-  <si>
-    <t>9071905273-01</t>
-  </si>
-  <si>
-    <t>COSU6194878780</t>
-  </si>
-  <si>
-    <t>MAGU5272840</t>
-  </si>
-  <si>
-    <t>9077904165-01</t>
-  </si>
-  <si>
-    <t>COSU6085344680</t>
-  </si>
-  <si>
-    <t>CCLU4724006</t>
-  </si>
-  <si>
-    <t>9077904370-01</t>
-  </si>
-  <si>
-    <t>OOCU7018189</t>
-  </si>
-  <si>
-    <t>9089904398-01</t>
+    <t>FSCU8920581</t>
+  </si>
+  <si>
+    <t>9089904462-01</t>
+  </si>
+  <si>
+    <t>ECMU9695333</t>
+  </si>
+  <si>
+    <t>9089904474-01</t>
+  </si>
+  <si>
+    <t>OOLU4358880</t>
+  </si>
+  <si>
+    <t>PPCL CANADA</t>
+  </si>
+  <si>
+    <t>9089904500-01</t>
   </si>
 </sst>
 </file>
@@ -191,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -268,79 +325,79 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -348,107 +405,215 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="123">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,82 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>FCIU7210400</t>
+    <t>CAIU7056810</t>
+  </si>
+  <si>
+    <t>OOCL SOUTHAMPTON</t>
+  </si>
+  <si>
+    <t>083E</t>
+  </si>
+  <si>
+    <t>9089904651-01</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013483</t>
+  </si>
+  <si>
+    <t>APZU4363620</t>
+  </si>
+  <si>
+    <t>9089904652-01</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013436</t>
+  </si>
+  <si>
+    <t>TGCU5074047</t>
+  </si>
+  <si>
+    <t>9089905062-01</t>
+  </si>
+  <si>
+    <t>ECMU1864822</t>
+  </si>
+  <si>
+    <t>9089904653-01</t>
+  </si>
+  <si>
+    <t>GLDU7144588</t>
+  </si>
+  <si>
+    <t>9089905061-01</t>
+  </si>
+  <si>
+    <t>CMAU6263499</t>
+  </si>
+  <si>
+    <t>9089905060-01</t>
+  </si>
+  <si>
+    <t>GESU3488660</t>
+  </si>
+  <si>
+    <t>9089905063-01</t>
+  </si>
+  <si>
+    <t>APZU4614515</t>
+  </si>
+  <si>
+    <t>OOCL GENOA</t>
+  </si>
+  <si>
+    <t>0TX2X</t>
+  </si>
+  <si>
+    <t>9089904655-01</t>
+  </si>
+  <si>
+    <t>CMDUSGN0614790</t>
+  </si>
+  <si>
+    <t>APZU4596900</t>
+  </si>
+  <si>
+    <t>9089905065-01</t>
+  </si>
+  <si>
+    <t>OOLU4335313</t>
   </si>
   <si>
     <t>OOCL TAIPEI</t>
@@ -41,33 +116,6 @@
     <t>032E</t>
   </si>
   <si>
-    <t>9076904260-01</t>
-  </si>
-  <si>
-    <t>COSU6085352750</t>
-  </si>
-  <si>
-    <t>TCNU9430081</t>
-  </si>
-  <si>
-    <t>9076904261-01</t>
-  </si>
-  <si>
-    <t>COSU6085352240</t>
-  </si>
-  <si>
-    <t>BMOU5840741</t>
-  </si>
-  <si>
-    <t>9076904262-01</t>
-  </si>
-  <si>
-    <t>COSU6085352230</t>
-  </si>
-  <si>
-    <t>OOLU4335313</t>
-  </si>
-  <si>
     <t>9089904523-01</t>
   </si>
   <si>
@@ -80,19 +128,49 @@
     <t>9089904522-01</t>
   </si>
   <si>
-    <t>OOCU4852618</t>
-  </si>
-  <si>
-    <t>OOCL TOKYO</t>
-  </si>
-  <si>
-    <t>092E</t>
-  </si>
-  <si>
-    <t>9089904463-01</t>
-  </si>
-  <si>
-    <t>OOLU2106101790</t>
+    <t>CAIU9678520</t>
+  </si>
+  <si>
+    <t>9089904605-01</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013472</t>
+  </si>
+  <si>
+    <t>SEGU4165950</t>
+  </si>
+  <si>
+    <t>9072905184-01</t>
+  </si>
+  <si>
+    <t>COSU6085365220</t>
+  </si>
+  <si>
+    <t>CBHU9567527</t>
+  </si>
+  <si>
+    <t>9089904631-01</t>
+  </si>
+  <si>
+    <t>OOLU2106358200</t>
+  </si>
+  <si>
+    <t>TGBU5990283</t>
+  </si>
+  <si>
+    <t>9089904606-01</t>
+  </si>
+  <si>
+    <t>OOLU7741466</t>
+  </si>
+  <si>
+    <t>9089905019-01</t>
+  </si>
+  <si>
+    <t>TCLU4091347</t>
+  </si>
+  <si>
+    <t>9089905064-01</t>
   </si>
   <si>
     <t>OOCU4975227</t>
@@ -101,12 +179,39 @@
     <t>9089904525-01</t>
   </si>
   <si>
+    <t>SEGU6438966</t>
+  </si>
+  <si>
+    <t>9089904654-01</t>
+  </si>
+  <si>
+    <t>PGHU4505463</t>
+  </si>
+  <si>
+    <t>9089905022-01</t>
+  </si>
+  <si>
     <t>OOLU6877490</t>
   </si>
   <si>
     <t>9089904526-01</t>
   </si>
   <si>
+    <t>OOCU7487340</t>
+  </si>
+  <si>
+    <t>OOCL MIAMI</t>
+  </si>
+  <si>
+    <t>054E</t>
+  </si>
+  <si>
+    <t>9089905146-01</t>
+  </si>
+  <si>
+    <t>OOLU2106472289</t>
+  </si>
+  <si>
     <t>OOLU7314931</t>
   </si>
   <si>
@@ -116,9 +221,6 @@
     <t>CSNU6367400</t>
   </si>
   <si>
-    <t>OOCL GENOA</t>
-  </si>
-  <si>
     <t>9071905273-01</t>
   </si>
   <si>
@@ -140,12 +242,48 @@
     <t>CMDUNBPD013416</t>
   </si>
   <si>
+    <t>UETU5567679</t>
+  </si>
+  <si>
+    <t>9089904607-01</t>
+  </si>
+  <si>
+    <t>OOLU7792606</t>
+  </si>
+  <si>
+    <t>9089905020-01</t>
+  </si>
+  <si>
+    <t>HJMU2060676</t>
+  </si>
+  <si>
+    <t>83E</t>
+  </si>
+  <si>
+    <t>9089905045-01</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013454</t>
+  </si>
+  <si>
     <t>CMAU8106673</t>
   </si>
   <si>
     <t>9089904472-01</t>
   </si>
   <si>
+    <t>TGHU4634269</t>
+  </si>
+  <si>
+    <t>9089905046-01</t>
+  </si>
+  <si>
+    <t>APZU4444105</t>
+  </si>
+  <si>
+    <t>9089905044-01</t>
+  </si>
+  <si>
     <t>OOLU3685723</t>
   </si>
   <si>
@@ -164,31 +302,43 @@
     <t>COSU6189044890</t>
   </si>
   <si>
+    <t>TRLU9492634</t>
+  </si>
+  <si>
+    <t>9089905047-01</t>
+  </si>
+  <si>
     <t>ECMU4470890</t>
   </si>
   <si>
     <t>9089904473-01</t>
   </si>
   <si>
-    <t>OOCU7018189</t>
-  </si>
-  <si>
-    <t>OOCL BEIJING</t>
-  </si>
-  <si>
-    <t>068E</t>
-  </si>
-  <si>
-    <t>9089904398-01</t>
-  </si>
-  <si>
-    <t>OOLU2106166424</t>
-  </si>
-  <si>
-    <t>FSCU8920581</t>
-  </si>
-  <si>
-    <t>9089904462-01</t>
+    <t>FCIU9517334</t>
+  </si>
+  <si>
+    <t>9072905782-01</t>
+  </si>
+  <si>
+    <t>COSU6085359710</t>
+  </si>
+  <si>
+    <t>TRLU9058145</t>
+  </si>
+  <si>
+    <t>9089904611-01</t>
+  </si>
+  <si>
+    <t>CAIU8278197</t>
+  </si>
+  <si>
+    <t>9089904604-01</t>
+  </si>
+  <si>
+    <t>OOLU9500560</t>
+  </si>
+  <si>
+    <t>9089905021-01</t>
   </si>
   <si>
     <t>ECMU9695333</t>
@@ -204,6 +354,33 @@
   </si>
   <si>
     <t>9089904500-01</t>
+  </si>
+  <si>
+    <t>CSNU6911811</t>
+  </si>
+  <si>
+    <t>9072905185-01</t>
+  </si>
+  <si>
+    <t>COSU6085377490</t>
+  </si>
+  <si>
+    <t>OOLU1928444</t>
+  </si>
+  <si>
+    <t>9089905144-01</t>
+  </si>
+  <si>
+    <t>OOLU7482750</t>
+  </si>
+  <si>
+    <t>9089905145-01</t>
+  </si>
+  <si>
+    <t>OOLU1160084</t>
+  </si>
+  <si>
+    <t>9089905147-01</t>
   </si>
 </sst>
 </file>
@@ -248,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -325,30 +502,30 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -357,34 +534,34 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -393,34 +570,34 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -429,88 +606,88 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -519,101 +696,569 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -137,15 +137,6 @@
     <t>CMDUNBPD013472</t>
   </si>
   <si>
-    <t>SEGU4165950</t>
-  </si>
-  <si>
-    <t>9072905184-01</t>
-  </si>
-  <si>
-    <t>COSU6085365220</t>
-  </si>
-  <si>
     <t>CBHU9567527</t>
   </si>
   <si>
@@ -218,15 +209,6 @@
     <t>9089904524-01</t>
   </si>
   <si>
-    <t>CSNU6367400</t>
-  </si>
-  <si>
-    <t>9071905273-01</t>
-  </si>
-  <si>
-    <t>COSU6194878780</t>
-  </si>
-  <si>
     <t>TRHU1020865</t>
   </si>
   <si>
@@ -293,15 +275,6 @@
     <t>OOLU2106104020</t>
   </si>
   <si>
-    <t>TEMU6000600</t>
-  </si>
-  <si>
-    <t>9089904489-01</t>
-  </si>
-  <si>
-    <t>COSU6189044890</t>
-  </si>
-  <si>
     <t>TRLU9492634</t>
   </si>
   <si>
@@ -314,15 +287,6 @@
     <t>9089904473-01</t>
   </si>
   <si>
-    <t>FCIU9517334</t>
-  </si>
-  <si>
-    <t>9072905782-01</t>
-  </si>
-  <si>
-    <t>COSU6085359710</t>
-  </si>
-  <si>
     <t>TRLU9058145</t>
   </si>
   <si>
@@ -335,36 +299,6 @@
     <t>9089904604-01</t>
   </si>
   <si>
-    <t>OOLU9500560</t>
-  </si>
-  <si>
-    <t>9089905021-01</t>
-  </si>
-  <si>
-    <t>ECMU9695333</t>
-  </si>
-  <si>
-    <t>9089904474-01</t>
-  </si>
-  <si>
-    <t>OOLU4358880</t>
-  </si>
-  <si>
-    <t>PPCL CANADA</t>
-  </si>
-  <si>
-    <t>9089904500-01</t>
-  </si>
-  <si>
-    <t>CSNU6911811</t>
-  </si>
-  <si>
-    <t>9072905185-01</t>
-  </si>
-  <si>
-    <t>COSU6085377490</t>
-  </si>
-  <si>
     <t>OOLU1928444</t>
   </si>
   <si>
@@ -377,10 +311,37 @@
     <t>9089905145-01</t>
   </si>
   <si>
+    <t>OOCU4991300</t>
+  </si>
+  <si>
+    <t>9089905187-01</t>
+  </si>
+  <si>
+    <t>OOLU2106472281</t>
+  </si>
+  <si>
+    <t>OOLU1425516</t>
+  </si>
+  <si>
+    <t>9089905188-01</t>
+  </si>
+  <si>
     <t>OOLU1160084</t>
   </si>
   <si>
     <t>9089905147-01</t>
+  </si>
+  <si>
+    <t>OOLU7504422</t>
+  </si>
+  <si>
+    <t>9089905190-01</t>
+  </si>
+  <si>
+    <t>OOLU1795552</t>
+  </si>
+  <si>
+    <t>9089905189-01</t>
   </si>
 </sst>
 </file>
@@ -425,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -672,10 +633,10 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -700,223 +661,223 @@
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
         <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -924,17 +885,17 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -945,320 +906,248 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
         <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
         <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
         <v>90</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\LBCT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -32,19 +39,34 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>OOCL SOUTHAMPTON</t>
+  </si>
+  <si>
+    <t>083E</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013483</t>
+  </si>
+  <si>
+    <t>9089904651-01</t>
+  </si>
+  <si>
     <t>CAIU7056810</t>
   </si>
   <si>
-    <t>OOCL SOUTHAMPTON</t>
-  </si>
-  <si>
-    <t>083E</t>
-  </si>
-  <si>
-    <t>9089904651-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013483</t>
+    <t>OOCU4793916</t>
+  </si>
+  <si>
+    <t>OOCL TAIPEI</t>
+  </si>
+  <si>
+    <t>032E</t>
+  </si>
+  <si>
+    <t>9089904522-01</t>
+  </si>
+  <si>
+    <t>OOLU2106264990</t>
   </si>
   <si>
     <t>APZU4363620</t>
@@ -110,22 +132,7 @@
     <t>OOLU4335313</t>
   </si>
   <si>
-    <t>OOCL TAIPEI</t>
-  </si>
-  <si>
-    <t>032E</t>
-  </si>
-  <si>
     <t>9089904523-01</t>
-  </si>
-  <si>
-    <t>OOLU2106264990</t>
-  </si>
-  <si>
-    <t>OOCU4793916</t>
-  </si>
-  <si>
-    <t>9089904522-01</t>
   </si>
   <si>
     <t>CAIU9678520</t>
@@ -347,11 +354,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,7 +369,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -381,18 +387,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,367 +694,347 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="E4"/>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13"/>
       <c r="F13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14"/>
       <c r="F14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E15"/>
       <c r="F15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E16"/>
       <c r="F16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="E17"/>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E19"/>
       <c r="F19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="E20"/>
       <c r="F20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E21"/>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -785,30 +1047,28 @@
       <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="E23"/>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -821,53 +1081,50 @@
       <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="E24"/>
       <c r="F24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="E25"/>
       <c r="F25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="E26"/>
       <c r="F26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -875,12 +1132,11 @@
       <c r="D27" t="s">
         <v>76</v>
       </c>
-      <c r="E27"/>
       <c r="F27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -893,17 +1149,16 @@
       <c r="D28" t="s">
         <v>79</v>
       </c>
-      <c r="E28"/>
       <c r="F28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -911,17 +1166,16 @@
       <c r="D29" t="s">
         <v>81</v>
       </c>
-      <c r="E29"/>
       <c r="F29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>75</v>
@@ -929,12 +1183,11 @@
       <c r="D30" t="s">
         <v>83</v>
       </c>
-      <c r="E30"/>
       <c r="F30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -947,17 +1200,16 @@
       <c r="D31" t="s">
         <v>85</v>
       </c>
-      <c r="E31"/>
       <c r="F31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
@@ -965,12 +1217,11 @@
       <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="E32"/>
       <c r="F32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -983,48 +1234,45 @@
       <c r="D33" t="s">
         <v>90</v>
       </c>
-      <c r="E33"/>
       <c r="F33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>92</v>
       </c>
-      <c r="E34"/>
       <c r="F34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>94</v>
       </c>
-      <c r="E35"/>
       <c r="F35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -1037,12 +1285,11 @@
       <c r="D36" t="s">
         <v>96</v>
       </c>
-      <c r="E36"/>
       <c r="F36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -1055,12 +1302,11 @@
       <c r="D37" t="s">
         <v>98</v>
       </c>
-      <c r="E37"/>
       <c r="F37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -1073,12 +1319,11 @@
       <c r="D38" t="s">
         <v>100</v>
       </c>
-      <c r="E38"/>
       <c r="F38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -1091,12 +1336,11 @@
       <c r="D39" t="s">
         <v>103</v>
       </c>
-      <c r="E39"/>
       <c r="F39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -1109,12 +1353,11 @@
       <c r="D40" t="s">
         <v>105</v>
       </c>
-      <c r="E40"/>
       <c r="F40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -1127,12 +1370,11 @@
       <c r="D41" t="s">
         <v>107</v>
       </c>
-      <c r="E41"/>
       <c r="F41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -1145,12 +1387,11 @@
       <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="E42"/>
       <c r="F42" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\PortTerminalScraping\LBCT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E331E-CE1A-45C6-898B-0E531D602B2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -509,11 +517,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -525,7 +532,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -543,18 +550,334 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -587,12 +910,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -605,12 +927,11 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -623,12 +944,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -641,12 +961,11 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -659,12 +978,11 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -677,12 +995,11 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7"/>
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -695,12 +1012,11 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -713,12 +1029,11 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -731,12 +1046,11 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -749,12 +1063,11 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11"/>
       <c r="F11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -767,12 +1080,11 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12"/>
       <c r="F12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -785,12 +1097,11 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13"/>
       <c r="F13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -803,12 +1114,11 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14"/>
       <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -821,12 +1131,11 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15"/>
       <c r="F15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -839,12 +1148,11 @@
       <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16"/>
       <c r="F16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -857,12 +1165,11 @@
       <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E17"/>
       <c r="F17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -875,12 +1182,11 @@
       <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -893,12 +1199,11 @@
       <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="E19"/>
       <c r="F19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -911,12 +1216,11 @@
       <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="E20"/>
       <c r="F20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -929,12 +1233,11 @@
       <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="E21"/>
       <c r="F21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -947,12 +1250,11 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -965,12 +1267,11 @@
       <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="E23"/>
       <c r="F23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -983,12 +1284,11 @@
       <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="E24"/>
       <c r="F24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -1001,12 +1301,11 @@
       <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="E25"/>
       <c r="F25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1019,12 +1318,11 @@
       <c r="D26" t="s">
         <v>76</v>
       </c>
-      <c r="E26"/>
       <c r="F26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1037,12 +1335,11 @@
       <c r="D27" t="s">
         <v>79</v>
       </c>
-      <c r="E27"/>
       <c r="F27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1055,12 +1352,11 @@
       <c r="D28" t="s">
         <v>82</v>
       </c>
-      <c r="E28"/>
       <c r="F28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -1073,12 +1369,11 @@
       <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="E29"/>
       <c r="F29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -1091,12 +1386,11 @@
       <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="E30"/>
       <c r="F30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -1109,12 +1403,11 @@
       <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="E31"/>
       <c r="F31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1127,12 +1420,11 @@
       <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="E32"/>
       <c r="F32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1145,12 +1437,11 @@
       <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="E33"/>
       <c r="F33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -1163,12 +1454,11 @@
       <c r="D34" t="s">
         <v>100</v>
       </c>
-      <c r="E34"/>
       <c r="F34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -1181,12 +1471,11 @@
       <c r="D35" t="s">
         <v>102</v>
       </c>
-      <c r="E35"/>
       <c r="F35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1199,12 +1488,11 @@
       <c r="D36" t="s">
         <v>104</v>
       </c>
-      <c r="E36"/>
       <c r="F36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -1217,12 +1505,11 @@
       <c r="D37" t="s">
         <v>107</v>
       </c>
-      <c r="E37"/>
       <c r="F37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -1235,12 +1522,11 @@
       <c r="D38" t="s">
         <v>109</v>
       </c>
-      <c r="E38"/>
       <c r="F38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -1253,12 +1539,11 @@
       <c r="D39" t="s">
         <v>111</v>
       </c>
-      <c r="E39"/>
       <c r="F39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -1271,12 +1556,11 @@
       <c r="D40" t="s">
         <v>113</v>
       </c>
-      <c r="E40"/>
       <c r="F40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -1289,12 +1573,11 @@
       <c r="D41" t="s">
         <v>115</v>
       </c>
-      <c r="E41"/>
       <c r="F41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -1307,12 +1590,11 @@
       <c r="D42" t="s">
         <v>117</v>
       </c>
-      <c r="E42"/>
       <c r="F42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -1325,12 +1607,11 @@
       <c r="D43" t="s">
         <v>119</v>
       </c>
-      <c r="E43"/>
       <c r="F43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -1343,12 +1624,11 @@
       <c r="D44" t="s">
         <v>121</v>
       </c>
-      <c r="E44"/>
       <c r="F44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -1361,12 +1641,11 @@
       <c r="D45" t="s">
         <v>124</v>
       </c>
-      <c r="E45"/>
       <c r="F45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -1379,12 +1658,11 @@
       <c r="D46" t="s">
         <v>126</v>
       </c>
-      <c r="E46"/>
       <c r="F46" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -1397,12 +1675,11 @@
       <c r="D47" t="s">
         <v>129</v>
       </c>
-      <c r="E47"/>
       <c r="F47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -1415,12 +1692,11 @@
       <c r="D48" t="s">
         <v>133</v>
       </c>
-      <c r="E48"/>
       <c r="F48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>135</v>
       </c>
@@ -1433,12 +1709,11 @@
       <c r="D49" t="s">
         <v>136</v>
       </c>
-      <c r="E49"/>
       <c r="F49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>138</v>
       </c>
@@ -1451,12 +1726,11 @@
       <c r="D50" t="s">
         <v>139</v>
       </c>
-      <c r="E50"/>
       <c r="F50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -1469,12 +1743,11 @@
       <c r="D51" t="s">
         <v>141</v>
       </c>
-      <c r="E51"/>
       <c r="F51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -1487,12 +1760,11 @@
       <c r="D52" t="s">
         <v>143</v>
       </c>
-      <c r="E52"/>
       <c r="F52" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>144</v>
       </c>
@@ -1505,12 +1777,11 @@
       <c r="D53" t="s">
         <v>145</v>
       </c>
-      <c r="E53"/>
       <c r="F53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -1523,12 +1794,11 @@
       <c r="D54" t="s">
         <v>147</v>
       </c>
-      <c r="E54"/>
       <c r="F54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -1541,12 +1811,11 @@
       <c r="D55" t="s">
         <v>149</v>
       </c>
-      <c r="E55"/>
       <c r="F55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -1559,12 +1828,11 @@
       <c r="D56" t="s">
         <v>151</v>
       </c>
-      <c r="E56"/>
       <c r="F56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -1577,12 +1845,11 @@
       <c r="D57" t="s">
         <v>153</v>
       </c>
-      <c r="E57"/>
       <c r="F57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -1595,12 +1862,11 @@
       <c r="D58" t="s">
         <v>155</v>
       </c>
-      <c r="E58"/>
       <c r="F58" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -1613,12 +1879,11 @@
       <c r="D59" t="s">
         <v>157</v>
       </c>
-      <c r="E59"/>
       <c r="F59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -1631,12 +1896,11 @@
       <c r="D60" t="s">
         <v>159</v>
       </c>
-      <c r="E60"/>
       <c r="F60" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -1649,12 +1913,11 @@
       <c r="D61" t="s">
         <v>161</v>
       </c>
-      <c r="E61"/>
       <c r="F61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>162</v>
       </c>
@@ -1667,12 +1930,11 @@
       <c r="D62" t="s">
         <v>163</v>
       </c>
-      <c r="E62"/>
       <c r="F62" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\PortTerminalScraping\LBCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\LBCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E331E-CE1A-45C6-898B-0E531D602B2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,484 +39,484 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>OOCL MIAMI</t>
+  </si>
+  <si>
+    <t>054E</t>
+  </si>
+  <si>
+    <t>OOCL LONDON</t>
+  </si>
+  <si>
+    <t>065E</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013441</t>
+  </si>
+  <si>
+    <t>OOLU2106472287</t>
+  </si>
+  <si>
+    <t>OOCL MEMPHIS</t>
+  </si>
+  <si>
+    <t>048E</t>
+  </si>
+  <si>
+    <t>OOLU2106548530</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013461</t>
+  </si>
+  <si>
+    <t>OOLU2106472282</t>
+  </si>
+  <si>
+    <t>OOLU2106548520</t>
+  </si>
+  <si>
+    <t>OOLU9715609</t>
+  </si>
+  <si>
+    <t>9089905244-01</t>
+  </si>
+  <si>
+    <t>UESU4168243</t>
+  </si>
+  <si>
+    <t>9089905344-01</t>
+  </si>
+  <si>
+    <t>OOLU3703792</t>
+  </si>
+  <si>
+    <t>9089905343-01</t>
+  </si>
+  <si>
+    <t>OOLU6777675</t>
+  </si>
+  <si>
+    <t>9089905256-01</t>
+  </si>
+  <si>
+    <t>CLHU4517420</t>
+  </si>
+  <si>
+    <t>9089905245-01</t>
+  </si>
+  <si>
+    <t>TGHU6674614</t>
+  </si>
+  <si>
+    <t>9089905341-01</t>
+  </si>
+  <si>
+    <t>APZU4467374</t>
+  </si>
+  <si>
+    <t>9089905296-01</t>
+  </si>
+  <si>
+    <t>APZU4639787</t>
+  </si>
+  <si>
+    <t>9089905297-01</t>
+  </si>
+  <si>
+    <t>TCNU3682595</t>
+  </si>
+  <si>
+    <t>9089905289-01</t>
+  </si>
+  <si>
+    <t>TCNU6709365</t>
+  </si>
+  <si>
+    <t>9089905330-01</t>
+  </si>
+  <si>
+    <t>9089905331-01</t>
+  </si>
+  <si>
+    <t>OOLU1639858</t>
+  </si>
+  <si>
+    <t>9089905255-01</t>
+  </si>
+  <si>
+    <t>OOLU1479560</t>
+  </si>
+  <si>
+    <t>9089905258-01</t>
+  </si>
+  <si>
+    <t>WHLU4223940</t>
+  </si>
+  <si>
+    <t>9089905342-01</t>
+  </si>
+  <si>
+    <t>DFSU4328476</t>
+  </si>
+  <si>
+    <t>COSU6194918200</t>
+  </si>
+  <si>
+    <t>9075905979-01</t>
+  </si>
+  <si>
+    <t>033E</t>
+  </si>
+  <si>
+    <t>OOCL HO CHI MINH CITY</t>
+  </si>
+  <si>
+    <t>RFCU4044759</t>
+  </si>
+  <si>
+    <t>9089905251-01</t>
+  </si>
+  <si>
+    <t>OOLU1378939</t>
+  </si>
+  <si>
+    <t>OOLU2106472281</t>
+  </si>
+  <si>
+    <t>9089905189-01</t>
+  </si>
+  <si>
+    <t>OOLU1795552</t>
+  </si>
+  <si>
+    <t>9089905293-01</t>
+  </si>
+  <si>
+    <t>BMOU3016527</t>
+  </si>
+  <si>
+    <t>COSU6085382290</t>
+  </si>
+  <si>
+    <t>9075905174-01</t>
+  </si>
+  <si>
+    <t>CCLU5198776</t>
+  </si>
+  <si>
+    <t>OOLU2106472289</t>
+  </si>
+  <si>
+    <t>9089905147-01</t>
+  </si>
+  <si>
+    <t>OOLU1160084</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013455</t>
+  </si>
+  <si>
+    <t>9089905299-01</t>
+  </si>
+  <si>
+    <t>ECMU8166994</t>
+  </si>
+  <si>
+    <t>9089905294-01</t>
+  </si>
+  <si>
+    <t>CMAU7229734</t>
+  </si>
+  <si>
+    <t>9089905298-01</t>
+  </si>
+  <si>
+    <t>TGHU5044210</t>
+  </si>
+  <si>
+    <t>9089905286-01</t>
+  </si>
+  <si>
+    <t>APHU6666650</t>
+  </si>
+  <si>
+    <t>9089905295-01</t>
+  </si>
+  <si>
+    <t>TEMU8341879</t>
+  </si>
+  <si>
+    <t>9089905246-01</t>
+  </si>
+  <si>
+    <t>WHLU4192387</t>
+  </si>
+  <si>
+    <t>9089905243-01</t>
+  </si>
+  <si>
+    <t>OOCU4864270</t>
+  </si>
+  <si>
+    <t>9089905284-01</t>
+  </si>
+  <si>
+    <t>APZU4844272</t>
+  </si>
+  <si>
+    <t>9089905287-01</t>
+  </si>
+  <si>
+    <t>APZU4596113</t>
+  </si>
+  <si>
+    <t>9089905285-01</t>
+  </si>
+  <si>
+    <t>CMAU4481589</t>
+  </si>
+  <si>
+    <t>9089905292-01</t>
+  </si>
+  <si>
+    <t>FSCU4842346</t>
+  </si>
+  <si>
+    <t>9089905329-01</t>
+  </si>
+  <si>
+    <t>OOLU9048759</t>
+  </si>
+  <si>
+    <t>COSU6085382280</t>
+  </si>
+  <si>
+    <t>9075905175-01</t>
+  </si>
+  <si>
+    <t>CBHU4229912</t>
+  </si>
+  <si>
+    <t>9089905345-01</t>
+  </si>
+  <si>
+    <t>OOCU7108111</t>
+  </si>
+  <si>
+    <t>9089905257-01</t>
+  </si>
+  <si>
+    <t>OOLU9811583</t>
+  </si>
+  <si>
+    <t>9089905288-01</t>
+  </si>
+  <si>
+    <t>ECMU8111420</t>
+  </si>
+  <si>
+    <t>9089905291-01</t>
+  </si>
+  <si>
+    <t>ECMU4485268</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013472</t>
+  </si>
+  <si>
+    <t>9089904611-01</t>
+  </si>
+  <si>
+    <t>083E</t>
+  </si>
+  <si>
+    <t>OOCL SOUTHAMPTON</t>
+  </si>
+  <si>
+    <t>TRLU9058145</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013416</t>
+  </si>
+  <si>
+    <t>9089904473-01</t>
+  </si>
+  <si>
+    <t>062E</t>
+  </si>
+  <si>
+    <t>OOCL CANADA</t>
+  </si>
+  <si>
+    <t>ECMU4470890</t>
+  </si>
+  <si>
+    <t>OOLU2106104020</t>
+  </si>
+  <si>
+    <t>9089904499-01</t>
+  </si>
+  <si>
+    <t>OOLU3685723</t>
+  </si>
+  <si>
+    <t>9089904472-01</t>
+  </si>
+  <si>
+    <t>CMAU8106673</t>
+  </si>
+  <si>
+    <t>9089904475-01</t>
+  </si>
+  <si>
+    <t>TRHU1020865</t>
+  </si>
+  <si>
+    <t>OOLU2106264990</t>
+  </si>
+  <si>
+    <t>9089904524-01</t>
+  </si>
+  <si>
+    <t>032E</t>
+  </si>
+  <si>
+    <t>OOCL TAIPEI</t>
+  </si>
+  <si>
+    <t>OOLU7314931</t>
+  </si>
+  <si>
+    <t>9089905146-01</t>
+  </si>
+  <si>
+    <t>OOCU7487340</t>
+  </si>
+  <si>
+    <t>9089904526-01</t>
+  </si>
+  <si>
+    <t>OOLU6877490</t>
+  </si>
+  <si>
+    <t>OOLU2106358200</t>
+  </si>
+  <si>
+    <t>9089905022-01</t>
+  </si>
+  <si>
+    <t>PGHU4505463</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013483</t>
+  </si>
+  <si>
+    <t>9089904654-01</t>
+  </si>
+  <si>
+    <t>SEGU6438966</t>
+  </si>
+  <si>
+    <t>9089904525-01</t>
+  </si>
+  <si>
+    <t>OOCU4975227</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013436</t>
+  </si>
+  <si>
+    <t>9089905064-01</t>
+  </si>
+  <si>
+    <t>TCLU4091347</t>
+  </si>
+  <si>
+    <t>9089904631-01</t>
+  </si>
+  <si>
+    <t>CBHU9567527</t>
+  </si>
+  <si>
+    <t>9089904522-01</t>
+  </si>
+  <si>
+    <t>OOCU4793916</t>
+  </si>
+  <si>
+    <t>9089904523-01</t>
+  </si>
+  <si>
+    <t>OOLU4335313</t>
+  </si>
+  <si>
+    <t>9089905065-01</t>
+  </si>
+  <si>
+    <t>APZU4596900</t>
+  </si>
+  <si>
+    <t>CMDUSGN0614790</t>
+  </si>
+  <si>
+    <t>9089904655-01</t>
+  </si>
+  <si>
+    <t>0TX2X</t>
+  </si>
+  <si>
+    <t>OOCL GENOA</t>
+  </si>
+  <si>
+    <t>APZU4614515</t>
+  </si>
+  <si>
+    <t>9089905063-01</t>
+  </si>
+  <si>
+    <t>GESU3488660</t>
+  </si>
+  <si>
+    <t>9089905060-01</t>
+  </si>
+  <si>
+    <t>CMAU6263499</t>
+  </si>
+  <si>
+    <t>9089905061-01</t>
+  </si>
+  <si>
+    <t>GLDU7144588</t>
+  </si>
+  <si>
+    <t>9089904653-01</t>
+  </si>
+  <si>
+    <t>ECMU1864822</t>
+  </si>
+  <si>
+    <t>9089905062-01</t>
+  </si>
+  <si>
+    <t>TGCU5074047</t>
+  </si>
+  <si>
+    <t>9089904652-01</t>
+  </si>
+  <si>
+    <t>APZU4363620</t>
+  </si>
+  <si>
+    <t>9089904651-01</t>
+  </si>
+  <si>
     <t>CAIU7056810</t>
-  </si>
-  <si>
-    <t>OOCL SOUTHAMPTON</t>
-  </si>
-  <si>
-    <t>083E</t>
-  </si>
-  <si>
-    <t>9089904651-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013483</t>
-  </si>
-  <si>
-    <t>APZU4363620</t>
-  </si>
-  <si>
-    <t>9089904652-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013436</t>
-  </si>
-  <si>
-    <t>TGCU5074047</t>
-  </si>
-  <si>
-    <t>9089905062-01</t>
-  </si>
-  <si>
-    <t>ECMU1864822</t>
-  </si>
-  <si>
-    <t>9089904653-01</t>
-  </si>
-  <si>
-    <t>GLDU7144588</t>
-  </si>
-  <si>
-    <t>9089905061-01</t>
-  </si>
-  <si>
-    <t>CMAU6263499</t>
-  </si>
-  <si>
-    <t>9089905060-01</t>
-  </si>
-  <si>
-    <t>GESU3488660</t>
-  </si>
-  <si>
-    <t>9089905063-01</t>
-  </si>
-  <si>
-    <t>APZU4614515</t>
-  </si>
-  <si>
-    <t>OOCL GENOA</t>
-  </si>
-  <si>
-    <t>0TX2X</t>
-  </si>
-  <si>
-    <t>9089904655-01</t>
-  </si>
-  <si>
-    <t>CMDUSGN0614790</t>
-  </si>
-  <si>
-    <t>APZU4596900</t>
-  </si>
-  <si>
-    <t>9089905065-01</t>
-  </si>
-  <si>
-    <t>OOLU4335313</t>
-  </si>
-  <si>
-    <t>OOCL TAIPEI</t>
-  </si>
-  <si>
-    <t>032E</t>
-  </si>
-  <si>
-    <t>9089904523-01</t>
-  </si>
-  <si>
-    <t>OOLU2106264990</t>
-  </si>
-  <si>
-    <t>OOCU4793916</t>
-  </si>
-  <si>
-    <t>9089904522-01</t>
-  </si>
-  <si>
-    <t>CBHU9567527</t>
-  </si>
-  <si>
-    <t>9089904631-01</t>
-  </si>
-  <si>
-    <t>OOLU2106358200</t>
-  </si>
-  <si>
-    <t>TCLU4091347</t>
-  </si>
-  <si>
-    <t>9089905064-01</t>
-  </si>
-  <si>
-    <t>OOCU4975227</t>
-  </si>
-  <si>
-    <t>9089904525-01</t>
-  </si>
-  <si>
-    <t>SEGU6438966</t>
-  </si>
-  <si>
-    <t>9089904654-01</t>
-  </si>
-  <si>
-    <t>PGHU4505463</t>
-  </si>
-  <si>
-    <t>9089905022-01</t>
-  </si>
-  <si>
-    <t>OOLU6877490</t>
-  </si>
-  <si>
-    <t>9089904526-01</t>
-  </si>
-  <si>
-    <t>OOCU7487340</t>
-  </si>
-  <si>
-    <t>OOCL MIAMI</t>
-  </si>
-  <si>
-    <t>054E</t>
-  </si>
-  <si>
-    <t>9089905146-01</t>
-  </si>
-  <si>
-    <t>OOLU2106472289</t>
-  </si>
-  <si>
-    <t>OOLU7314931</t>
-  </si>
-  <si>
-    <t>9089904524-01</t>
-  </si>
-  <si>
-    <t>TRHU1020865</t>
-  </si>
-  <si>
-    <t>OOCL CANADA</t>
-  </si>
-  <si>
-    <t>062E</t>
-  </si>
-  <si>
-    <t>9089904475-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013416</t>
-  </si>
-  <si>
-    <t>CMAU8106673</t>
-  </si>
-  <si>
-    <t>9089904472-01</t>
-  </si>
-  <si>
-    <t>OOLU3685723</t>
-  </si>
-  <si>
-    <t>9089904499-01</t>
-  </si>
-  <si>
-    <t>OOLU2106104020</t>
-  </si>
-  <si>
-    <t>ECMU4470890</t>
-  </si>
-  <si>
-    <t>9089904473-01</t>
-  </si>
-  <si>
-    <t>TRLU9058145</t>
-  </si>
-  <si>
-    <t>9089904611-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013472</t>
-  </si>
-  <si>
-    <t>ECMU4485268</t>
-  </si>
-  <si>
-    <t>OOCL LONDON</t>
-  </si>
-  <si>
-    <t>065E</t>
-  </si>
-  <si>
-    <t>9089905291-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013455</t>
-  </si>
-  <si>
-    <t>ECMU8111420</t>
-  </si>
-  <si>
-    <t>9089905288-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013441</t>
-  </si>
-  <si>
-    <t>OOLU9811583</t>
-  </si>
-  <si>
-    <t>9089905257-01</t>
-  </si>
-  <si>
-    <t>OOLU2106472287</t>
-  </si>
-  <si>
-    <t>OOCU7108111</t>
-  </si>
-  <si>
-    <t>OOCL MEMPHIS</t>
-  </si>
-  <si>
-    <t>048E</t>
-  </si>
-  <si>
-    <t>9089905345-01</t>
-  </si>
-  <si>
-    <t>OOLU2106548530</t>
-  </si>
-  <si>
-    <t>CBHU4229912</t>
-  </si>
-  <si>
-    <t>9075905175-01</t>
-  </si>
-  <si>
-    <t>COSU6085382280</t>
-  </si>
-  <si>
-    <t>OOLU9048759</t>
-  </si>
-  <si>
-    <t>9089905329-01</t>
-  </si>
-  <si>
-    <t>FSCU4842346</t>
-  </si>
-  <si>
-    <t>9089905292-01</t>
-  </si>
-  <si>
-    <t>CMAU4481589</t>
-  </si>
-  <si>
-    <t>9089905285-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013461</t>
-  </si>
-  <si>
-    <t>APZU4596113</t>
-  </si>
-  <si>
-    <t>9089905287-01</t>
-  </si>
-  <si>
-    <t>APZU4844272</t>
-  </si>
-  <si>
-    <t>9089905284-01</t>
-  </si>
-  <si>
-    <t>OOCU4864270</t>
-  </si>
-  <si>
-    <t>9089905243-01</t>
-  </si>
-  <si>
-    <t>OOLU2106472282</t>
-  </si>
-  <si>
-    <t>WHLU4192387</t>
-  </si>
-  <si>
-    <t>9089905246-01</t>
-  </si>
-  <si>
-    <t>TEMU8341879</t>
-  </si>
-  <si>
-    <t>9089905295-01</t>
-  </si>
-  <si>
-    <t>APHU6666650</t>
-  </si>
-  <si>
-    <t>9089905286-01</t>
-  </si>
-  <si>
-    <t>TGHU5044210</t>
-  </si>
-  <si>
-    <t>9089905298-01</t>
-  </si>
-  <si>
-    <t>CMAU7229734</t>
-  </si>
-  <si>
-    <t>9089905294-01</t>
-  </si>
-  <si>
-    <t>ECMU8166994</t>
-  </si>
-  <si>
-    <t>9089905299-01</t>
-  </si>
-  <si>
-    <t>OOLU1160084</t>
-  </si>
-  <si>
-    <t>9089905147-01</t>
-  </si>
-  <si>
-    <t>CCLU5198776</t>
-  </si>
-  <si>
-    <t>9075905174-01</t>
-  </si>
-  <si>
-    <t>COSU6085382290</t>
-  </si>
-  <si>
-    <t>BMOU3016527</t>
-  </si>
-  <si>
-    <t>9089905293-01</t>
-  </si>
-  <si>
-    <t>OOLU1795552</t>
-  </si>
-  <si>
-    <t>9089905189-01</t>
-  </si>
-  <si>
-    <t>OOLU2106472281</t>
-  </si>
-  <si>
-    <t>OOLU1378939</t>
-  </si>
-  <si>
-    <t>9089905251-01</t>
-  </si>
-  <si>
-    <t>RFCU4044759</t>
-  </si>
-  <si>
-    <t>OOCL HO CHI MINH CITY</t>
-  </si>
-  <si>
-    <t>033E</t>
-  </si>
-  <si>
-    <t>9075905979-01</t>
-  </si>
-  <si>
-    <t>COSU6194918200</t>
-  </si>
-  <si>
-    <t>DFSU4328476</t>
-  </si>
-  <si>
-    <t>9089905342-01</t>
-  </si>
-  <si>
-    <t>OOLU2106548520</t>
-  </si>
-  <si>
-    <t>WHLU4223940</t>
-  </si>
-  <si>
-    <t>9089905258-01</t>
-  </si>
-  <si>
-    <t>OOLU1479560</t>
-  </si>
-  <si>
-    <t>9089905255-01</t>
-  </si>
-  <si>
-    <t>OOLU1639858</t>
-  </si>
-  <si>
-    <t>9089905331-01</t>
-  </si>
-  <si>
-    <t>OOLU9715609</t>
-  </si>
-  <si>
-    <t>9089905244-01</t>
-  </si>
-  <si>
-    <t>UESU4168243</t>
-  </si>
-  <si>
-    <t>9089905344-01</t>
-  </si>
-  <si>
-    <t>OOLU3703792</t>
-  </si>
-  <si>
-    <t>9089905343-01</t>
-  </si>
-  <si>
-    <t>OOLU6777675</t>
-  </si>
-  <si>
-    <t>9089905256-01</t>
-  </si>
-  <si>
-    <t>CLHU4517420</t>
-  </si>
-  <si>
-    <t>9089905245-01</t>
-  </si>
-  <si>
-    <t>TGHU6674614</t>
-  </si>
-  <si>
-    <t>9089905341-01</t>
-  </si>
-  <si>
-    <t>APZU4467374</t>
-  </si>
-  <si>
-    <t>9089905296-01</t>
-  </si>
-  <si>
-    <t>APZU4639787</t>
-  </si>
-  <si>
-    <t>9089905297-01</t>
-  </si>
-  <si>
-    <t>TCNU3682595</t>
-  </si>
-  <si>
-    <t>9089905289-01</t>
-  </si>
-  <si>
-    <t>TCNU6709365</t>
-  </si>
-  <si>
-    <t>9089905330-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -862,11 +861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,1039 +898,1039 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s">
         <v>53</v>
-      </c>
-      <c r="D46" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -32,6 +32,30 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>ECMU4485268</t>
+  </si>
+  <si>
+    <t>OOCL LONDON</t>
+  </si>
+  <si>
+    <t>065E</t>
+  </si>
+  <si>
+    <t>9089905291-01</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013455</t>
+  </si>
+  <si>
+    <t>ECMU8111420</t>
+  </si>
+  <si>
+    <t>9089905288-01</t>
+  </si>
+  <si>
+    <t>CMDUNBPD013441</t>
+  </si>
+  <si>
     <t>OOLU9811583</t>
   </si>
   <si>
@@ -47,21 +71,42 @@
     <t>OOLU2106472287</t>
   </si>
   <si>
+    <t>OOCU7108111</t>
+  </si>
+  <si>
+    <t>OOCL MEMPHIS</t>
+  </si>
+  <si>
+    <t>048E</t>
+  </si>
+  <si>
+    <t>9089905345-01</t>
+  </si>
+  <si>
+    <t>OOLU2106548530</t>
+  </si>
+  <si>
+    <t>CBHU4229912</t>
+  </si>
+  <si>
+    <t>9075905175-01</t>
+  </si>
+  <si>
+    <t>COSU6085382280</t>
+  </si>
+  <si>
+    <t>OOLU9048759</t>
+  </si>
+  <si>
+    <t>9089905329-01</t>
+  </si>
+  <si>
     <t>FSCU4842346</t>
   </si>
   <si>
-    <t>OOCL LONDON</t>
-  </si>
-  <si>
-    <t>065E</t>
-  </si>
-  <si>
     <t>9089905292-01</t>
   </si>
   <si>
-    <t>CMDUNBPD013455</t>
-  </si>
-  <si>
     <t>CMAU4481589</t>
   </si>
   <si>
@@ -77,6 +122,60 @@
     <t>9089905287-01</t>
   </si>
   <si>
+    <t>OOCU4864270</t>
+  </si>
+  <si>
+    <t>9089905243-01</t>
+  </si>
+  <si>
+    <t>OOLU2106472282</t>
+  </si>
+  <si>
+    <t>TEMU8341879</t>
+  </si>
+  <si>
+    <t>9089905295-01</t>
+  </si>
+  <si>
+    <t>APHU6666650</t>
+  </si>
+  <si>
+    <t>9089905286-01</t>
+  </si>
+  <si>
+    <t>TGHU5044210</t>
+  </si>
+  <si>
+    <t>9089905298-01</t>
+  </si>
+  <si>
+    <t>CMAU7229734</t>
+  </si>
+  <si>
+    <t>9089905294-01</t>
+  </si>
+  <si>
+    <t>ECMU8166994</t>
+  </si>
+  <si>
+    <t>9089905299-01</t>
+  </si>
+  <si>
+    <t>CCLU5198776</t>
+  </si>
+  <si>
+    <t>9075905174-01</t>
+  </si>
+  <si>
+    <t>COSU6085382290</t>
+  </si>
+  <si>
+    <t>BMOU3016527</t>
+  </si>
+  <si>
+    <t>9089905293-01</t>
+  </si>
+  <si>
     <t>RFCU4044759</t>
   </si>
   <si>
@@ -92,172 +191,73 @@
     <t>COSU6194918200</t>
   </si>
   <si>
-    <t>APHU6666650</t>
-  </si>
-  <si>
-    <t>9089905286-01</t>
-  </si>
-  <si>
-    <t>BMOU3016527</t>
-  </si>
-  <si>
-    <t>9089905293-01</t>
-  </si>
-  <si>
-    <t>CMDUNBPD013441</t>
+    <t>DFSU4328476</t>
+  </si>
+  <si>
+    <t>9089905342-01</t>
+  </si>
+  <si>
+    <t>OOLU2106548520</t>
+  </si>
+  <si>
+    <t>OOLU1479560</t>
+  </si>
+  <si>
+    <t>9089905255-01</t>
+  </si>
+  <si>
+    <t>OOLU1639858</t>
+  </si>
+  <si>
+    <t>9089905331-01</t>
+  </si>
+  <si>
+    <t>OOLU9715609</t>
+  </si>
+  <si>
+    <t>9089905244-01</t>
+  </si>
+  <si>
+    <t>UESU4168243</t>
+  </si>
+  <si>
+    <t>9089905344-01</t>
+  </si>
+  <si>
+    <t>OOLU3703792</t>
+  </si>
+  <si>
+    <t>9089905343-01</t>
+  </si>
+  <si>
+    <t>TGHU6674614</t>
+  </si>
+  <si>
+    <t>9089905341-01</t>
+  </si>
+  <si>
+    <t>APZU4467374</t>
+  </si>
+  <si>
+    <t>9089905296-01</t>
+  </si>
+  <si>
+    <t>APZU4639787</t>
+  </si>
+  <si>
+    <t>9089905297-01</t>
+  </si>
+  <si>
+    <t>TCNU3682595</t>
+  </si>
+  <si>
+    <t>9089905289-01</t>
   </si>
   <si>
     <t>TCNU6709365</t>
   </si>
   <si>
-    <t>OOCL MEMPHIS</t>
-  </si>
-  <si>
-    <t>048E</t>
-  </si>
-  <si>
     <t>9089905330-01</t>
-  </si>
-  <si>
-    <t>OOLU2106548520</t>
-  </si>
-  <si>
-    <t>UESU4168243</t>
-  </si>
-  <si>
-    <t>9089905344-01</t>
-  </si>
-  <si>
-    <t>OOLU2106548530</t>
-  </si>
-  <si>
-    <t>OOLU1479560</t>
-  </si>
-  <si>
-    <t>9089905255-01</t>
-  </si>
-  <si>
-    <t>CBHU4229912</t>
-  </si>
-  <si>
-    <t>9075905175-01</t>
-  </si>
-  <si>
-    <t>COSU6085382280</t>
-  </si>
-  <si>
-    <t>OOLU3703792</t>
-  </si>
-  <si>
-    <t>9089905343-01</t>
-  </si>
-  <si>
-    <t>TEMU8341879</t>
-  </si>
-  <si>
-    <t>9089905295-01</t>
-  </si>
-  <si>
-    <t>TGHU5044210</t>
-  </si>
-  <si>
-    <t>9089905298-01</t>
-  </si>
-  <si>
-    <t>ECMU8166994</t>
-  </si>
-  <si>
-    <t>9089905299-01</t>
-  </si>
-  <si>
-    <t>OOCU4864270</t>
-  </si>
-  <si>
-    <t>9089905243-01</t>
-  </si>
-  <si>
-    <t>OOLU2106472282</t>
-  </si>
-  <si>
-    <t>ECMU4485268</t>
-  </si>
-  <si>
-    <t>9089905291-01</t>
-  </si>
-  <si>
-    <t>ECMU8111420</t>
-  </si>
-  <si>
-    <t>9089905288-01</t>
-  </si>
-  <si>
-    <t>OOLU9048759</t>
-  </si>
-  <si>
-    <t>9089905329-01</t>
-  </si>
-  <si>
-    <t>APZU4467374</t>
-  </si>
-  <si>
-    <t>9089905296-01</t>
-  </si>
-  <si>
-    <t>APZU4639787</t>
-  </si>
-  <si>
-    <t>9089905297-01</t>
-  </si>
-  <si>
-    <t>TCNU3682595</t>
-  </si>
-  <si>
-    <t>9089905289-01</t>
-  </si>
-  <si>
-    <t>CCLU5198776</t>
-  </si>
-  <si>
-    <t>9075905174-01</t>
-  </si>
-  <si>
-    <t>COSU6085382290</t>
-  </si>
-  <si>
-    <t>DFSU4328476</t>
-  </si>
-  <si>
-    <t>9089905342-01</t>
-  </si>
-  <si>
-    <t>OOLU9715609</t>
-  </si>
-  <si>
-    <t>9089905244-01</t>
-  </si>
-  <si>
-    <t>OOCU7108111</t>
-  </si>
-  <si>
-    <t>9089905345-01</t>
-  </si>
-  <si>
-    <t>CMAU7229734</t>
-  </si>
-  <si>
-    <t>9089905294-01</t>
-  </si>
-  <si>
-    <t>OOLU1639858</t>
-  </si>
-  <si>
-    <t>9089905331-01</t>
-  </si>
-  <si>
-    <t>TGHU6674614</t>
-  </si>
-  <si>
-    <t>9089905341-01</t>
   </si>
 </sst>
 </file>
@@ -351,28 +351,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -387,71 +387,71 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -459,197 +459,197 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -657,31 +657,31 @@
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
@@ -690,56 +690,56 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -747,17 +747,17 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>71</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -765,17 +765,17 @@
         <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -783,17 +783,17 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -801,17 +801,17 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -819,17 +819,17 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>79</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -837,17 +837,17 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -258,6 +258,63 @@
   </si>
   <si>
     <t>9089905330-01</t>
+  </si>
+  <si>
+    <t>CBHU8575940</t>
+  </si>
+  <si>
+    <t>OOCL BEIJING</t>
+  </si>
+  <si>
+    <t>069E</t>
+  </si>
+  <si>
+    <t>9071906408-01</t>
+  </si>
+  <si>
+    <t>COSU6210920460</t>
+  </si>
+  <si>
+    <t>CBHU9545596</t>
+  </si>
+  <si>
+    <t>9071906409-01</t>
+  </si>
+  <si>
+    <t>CCLU7007842</t>
+  </si>
+  <si>
+    <t>9071906404-01</t>
+  </si>
+  <si>
+    <t>COSU6210907820</t>
+  </si>
+  <si>
+    <t>DFSU7408600</t>
+  </si>
+  <si>
+    <t>9071906403-01</t>
+  </si>
+  <si>
+    <t>COSU6210907810</t>
+  </si>
+  <si>
+    <t>FCIU7077555</t>
+  </si>
+  <si>
+    <t>9071906406-01</t>
+  </si>
+  <si>
+    <t>CSNU6024864</t>
+  </si>
+  <si>
+    <t>9071906405-01</t>
+  </si>
+  <si>
+    <t>CCLU7051980</t>
+  </si>
+  <si>
+    <t>9071906407-01</t>
   </si>
 </sst>
 </file>
@@ -302,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -850,6 +907,132 @@
         <v>61</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,43 +32,85 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>CCLU7818710</t>
+  </si>
+  <si>
+    <t>OOCL MEMPHIS</t>
+  </si>
+  <si>
+    <t>049E</t>
+  </si>
+  <si>
+    <t>9071907387-01</t>
+  </si>
+  <si>
+    <t>COSU6210952320</t>
+  </si>
+  <si>
+    <t>BMOU4922568</t>
+  </si>
+  <si>
+    <t>9071907385-01</t>
+  </si>
+  <si>
+    <t>COSU6210927510</t>
+  </si>
+  <si>
+    <t>RFCU5010563</t>
+  </si>
+  <si>
+    <t>9089906460-01</t>
+  </si>
+  <si>
+    <t>COSU6189052900</t>
+  </si>
+  <si>
+    <t>TGHU5207174</t>
+  </si>
+  <si>
+    <t>OOCL LONDON</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>9089906292-01</t>
+  </si>
+  <si>
+    <t>OOLU2107060320</t>
+  </si>
+  <si>
+    <t>CCLU5303444</t>
+  </si>
+  <si>
+    <t>9089906459-01</t>
+  </si>
+  <si>
+    <t>COSU6209613790</t>
+  </si>
+  <si>
     <t>OOLU7535280</t>
   </si>
   <si>
-    <t>OOCL LONDON</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>9089906293-01</t>
   </si>
   <si>
     <t>OOLU2107060300</t>
   </si>
   <si>
-    <t>TGHU5207174</t>
-  </si>
-  <si>
-    <t>9089906292-01</t>
-  </si>
-  <si>
-    <t>OOLU2107060320</t>
-  </si>
-  <si>
-    <t>CCLU7818710</t>
-  </si>
-  <si>
-    <t>OOCL MEMPHIS</t>
-  </si>
-  <si>
-    <t>049E</t>
-  </si>
-  <si>
-    <t>9071907387-01</t>
-  </si>
-  <si>
-    <t>COSU6210952320</t>
+    <t>DFSU6064182</t>
+  </si>
+  <si>
+    <t>OOCL MIAMI</t>
+  </si>
+  <si>
+    <t>055E</t>
+  </si>
+  <si>
+    <t>9076906421-01</t>
+  </si>
+  <si>
+    <t>COSU6210929590</t>
   </si>
   <si>
     <t>UETU5403340</t>
@@ -77,34 +119,10 @@
     <t>9071907386-01</t>
   </si>
   <si>
-    <t>BMOU4922568</t>
-  </si>
-  <si>
-    <t>9071907385-01</t>
-  </si>
-  <si>
-    <t>COSU6210927510</t>
-  </si>
-  <si>
     <t>BMOU4839751</t>
   </si>
   <si>
     <t>9071907384-01</t>
-  </si>
-  <si>
-    <t>DFSU6064182</t>
-  </si>
-  <si>
-    <t>OOCL MIAMI</t>
-  </si>
-  <si>
-    <t>055E</t>
-  </si>
-  <si>
-    <t>9076906421-01</t>
-  </si>
-  <si>
-    <t>COSU6210929590</t>
   </si>
 </sst>
 </file>
@@ -149,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -216,89 +234,125 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -54,48 +54,6 @@
   </si>
   <si>
     <t>COSU6210927510</t>
-  </si>
-  <si>
-    <t>RFCU5010563</t>
-  </si>
-  <si>
-    <t>9089906460-01</t>
-  </si>
-  <si>
-    <t>COSU6189052900</t>
-  </si>
-  <si>
-    <t>TGHU5207174</t>
-  </si>
-  <si>
-    <t>OOCL LONDON</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>9089906292-01</t>
-  </si>
-  <si>
-    <t>OOLU2107060320</t>
-  </si>
-  <si>
-    <t>CCLU5303444</t>
-  </si>
-  <si>
-    <t>9089906459-01</t>
-  </si>
-  <si>
-    <t>COSU6209613790</t>
-  </si>
-  <si>
-    <t>OOLU7535280</t>
-  </si>
-  <si>
-    <t>9089906293-01</t>
-  </si>
-  <si>
-    <t>OOLU2107060300</t>
   </si>
   <si>
     <t>DFSU6064182</t>
@@ -167,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -234,124 +192,52 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,55 +32,19 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CCLU7818710</t>
+    <t>TEMU7583395</t>
   </si>
   <si>
-    <t>OOCL MEMPHIS</t>
+    <t>OOCL LUXEMBOURG</t>
   </si>
   <si>
-    <t>049E</t>
+    <t>067E</t>
   </si>
   <si>
-    <t>9071907387-01</t>
+    <t>9074908474-01</t>
   </si>
   <si>
-    <t>COSU6210952320</t>
-  </si>
-  <si>
-    <t>BMOU4922568</t>
-  </si>
-  <si>
-    <t>9071907385-01</t>
-  </si>
-  <si>
-    <t>COSU6210927510</t>
-  </si>
-  <si>
-    <t>DFSU6064182</t>
-  </si>
-  <si>
-    <t>OOCL MIAMI</t>
-  </si>
-  <si>
-    <t>055E</t>
-  </si>
-  <si>
-    <t>9076906421-01</t>
-  </si>
-  <si>
-    <t>COSU6210929590</t>
-  </si>
-  <si>
-    <t>UETU5403340</t>
-  </si>
-  <si>
-    <t>9071907386-01</t>
-  </si>
-  <si>
-    <t>BMOU4839751</t>
-  </si>
-  <si>
-    <t>9071907384-01</t>
+    <t>OOLU2107788780</t>
   </si>
 </sst>
 </file>
@@ -125,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,78 +133,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/LBCT/Test.xlsx
+++ b/LBCT/Test.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\PortTerminalScraping\LBCT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17730"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -45,16 +52,39 @@
   </si>
   <si>
     <t>OOLU2107788780</t>
+  </si>
+  <si>
+    <t>EMCU6094278</t>
+  </si>
+  <si>
+    <t>OOCL CANADA</t>
+  </si>
+  <si>
+    <t>065E</t>
+  </si>
+  <si>
+    <t>9078908169-01</t>
+  </si>
+  <si>
+    <t>EGLV142952359601</t>
+  </si>
+  <si>
+    <t>OOLU9673756</t>
+  </si>
+  <si>
+    <t>9072909110-01</t>
+  </si>
+  <si>
+    <t>OOLU2108136670</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,7 +96,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -84,18 +114,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -115,7 +421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -128,12 +434,45 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>